--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrbos\OneDrive\Bureaublad\Prive\Projecten\Language_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01613E9E-4027-4870-9A9B-64C1DB353522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96D448-0169-42B6-818C-BAF877BFA170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,10 +398,13 @@
   <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -453,6 +456,9 @@
       <c r="A9" s="2">
         <v>45704</v>
       </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">

--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrbos\OneDrive\Bureaublad\Prive\Projecten\Language_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96D448-0169-42B6-818C-BAF877BFA170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B54D5-1475-4CFD-8FC1-4D9A6D0ACAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -398,12 +398,12 @@
   <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -456,18 +456,27 @@
       <c r="A9" s="2">
         <v>45704</v>
       </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45705</v>
       </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45706</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">

--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrbos\OneDrive\Bureaublad\Prive\Projecten\Language_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B54D5-1475-4CFD-8FC1-4D9A6D0ACAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACCC9C3-ABDF-4977-B89A-1B58456F33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,10 +462,10 @@
         <v>45705</v>
       </c>
       <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
         <v>65</v>
-      </c>
-      <c r="C10">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -473,10 +473,10 @@
         <v>45706</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
